--- a/Consumer/Wingstop.xlsx
+++ b/Consumer/Wingstop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E845AE0-604A-B64E-9E8A-3F7F934721FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A385CD2-96BB-5844-A241-3374EC70AA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="250">
   <si>
     <t>2012 Y</t>
   </si>
@@ -818,6 +818,12 @@
   </si>
   <si>
     <t>Projected Shares</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change %</t>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -974,6 +980,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1057,7 +1069,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1102,65 +1114,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1169,23 +1124,201 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,7 +1328,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1203,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,215 +1411,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1477,41 +1444,239 @@
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,10 +1711,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Quality"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1566,7 +1732,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.4839999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1578,6 +1744,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1703,11 +1870,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>223.77</v>
+    <v>241.655</v>
     <v>129.46</v>
-    <v>1.4654</v>
-    <v>0.51</v>
-    <v>2.8639999999999998E-3</v>
+    <v>1.5290999999999999</v>
+    <v>4.8</v>
+    <v>2.0367000000000003E-2</v>
+    <v>-2.25</v>
+    <v>-9.356999999999999E-3</v>
     <v>USD</v>
     <v>Wingstop Inc. is a fast casual chicken wings-focused restaurant chain, with over 1,950 locations worldwide. The Company is in the business of franchising and operating Wingstop restaurants. The Company is primarily a franchisor, with approximately 98% of its restaurants owned and operated by independent franchisees. It offers classic and boneless wings, tenders, and chicken sandwiches, always cooked to order and hand sauced-and-tossed in about 11 distinctive flavors. The Company also complements its wings, tenders, and chicken sandwiches with seasoned fries, ranch, bleu cheese dips, hand-cut carrots and celery. It offers various order options, including eat-in, to go, individual, combo meals and family packs. It also developed a custom Website and mobile ordering application. The Company operates approximately a total of 1,916 restaurants in 44 states and nine countries.</v>
     <v>1031</v>
@@ -1715,24 +1884,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>15505 WRIGHT BROTHERS DRIVE, ADDISON, TX, 75001 US</v>
-    <v>180.13</v>
+    <v>241.655</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45229.872391724217</v>
+    <v>45258.002888402341</v>
     <v>0</v>
-    <v>176.82</v>
-    <v>5353101817</v>
+    <v>229.27</v>
+    <v>7073405812</v>
     <v>WINGSTOP INC.</v>
     <v>WINGSTOP INC.</v>
-    <v>178.06</v>
-    <v>85.322199999999995</v>
-    <v>178.06</v>
-    <v>178.57</v>
-    <v>29977610</v>
+    <v>234.8</v>
+    <v>104.4936</v>
+    <v>235.67</v>
+    <v>240.47</v>
+    <v>238.22</v>
+    <v>29414920</v>
     <v>WING</v>
     <v>WINGSTOP INC. (XNAS:WING)</v>
-    <v>424289</v>
-    <v>534789</v>
+    <v>549706</v>
+    <v>531973</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1764,6 +1934,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1784,6 +1956,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1800,7 +1973,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1811,13 +1984,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1883,13 +2059,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1934,6 +2116,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1941,6 +2126,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2391,55 +2579,55 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="34">
         <v>51591000</v>
       </c>
-      <c r="C2" s="98">
+      <c r="C2" s="34">
         <v>58999000</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="34">
         <v>67449000</v>
       </c>
-      <c r="E2" s="98">
+      <c r="E2" s="34">
         <v>77969000</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="34">
         <v>91359000</v>
       </c>
-      <c r="G2" s="98">
+      <c r="G2" s="34">
         <v>105552000</v>
       </c>
-      <c r="H2" s="98">
+      <c r="H2" s="34">
         <v>153181000</v>
       </c>
-      <c r="I2" s="98">
+      <c r="I2" s="34">
         <v>199676000</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="34">
         <v>248811000</v>
       </c>
-      <c r="K2" s="98">
+      <c r="K2" s="34">
         <v>282502000</v>
       </c>
-      <c r="L2" s="98">
+      <c r="L2" s="34">
         <v>357521000</v>
       </c>
-      <c r="M2" s="99">
+      <c r="M2" s="35">
         <v>413433000</v>
       </c>
-      <c r="N2" s="98">
+      <c r="N2" s="34">
         <v>92672000</v>
       </c>
-      <c r="O2" s="98">
+      <c r="O2" s="34">
         <v>104867000</v>
       </c>
-      <c r="P2" s="98">
+      <c r="P2" s="34">
         <v>108721000</v>
       </c>
-      <c r="Q2" s="98">
+      <c r="Q2" s="34">
         <v>107173000</v>
       </c>
     </row>
@@ -2666,108 +2854,108 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="38">
         <v>30329000</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="38">
         <v>36823000</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="38">
         <v>46976000</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="38">
         <v>55750000</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="38">
         <v>66051000</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="38">
         <v>76807000</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="38">
         <v>87419000</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="38">
         <v>105680000</v>
       </c>
-      <c r="J7" s="102">
+      <c r="J7" s="38">
         <v>130800000</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="38">
         <v>141097000</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="38">
         <v>170122000</v>
       </c>
-      <c r="M7" s="103">
+      <c r="M7" s="39">
         <v>198551000</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="38">
         <v>43842000</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="38">
         <v>50524000</v>
       </c>
-      <c r="P7" s="102">
+      <c r="P7" s="38">
         <v>52383000</v>
       </c>
-      <c r="Q7" s="102">
+      <c r="Q7" s="38">
         <v>51802000</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="41">
         <v>58.79</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="41">
         <v>62.41</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="41">
         <v>69.650000000000006</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="41">
         <v>71.5</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="41">
         <v>72.3</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="41">
         <v>72.77</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="41">
         <v>57.07</v>
       </c>
-      <c r="I8" s="105">
+      <c r="I8" s="41">
         <v>52.93</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="41">
         <v>52.57</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="41">
         <v>49.95</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="41">
         <v>47.58</v>
       </c>
-      <c r="M8" s="106">
+      <c r="M8" s="42">
         <v>48.02</v>
       </c>
-      <c r="N8" s="105">
+      <c r="N8" s="41">
         <v>47.31</v>
       </c>
-      <c r="O8" s="105">
+      <c r="O8" s="41">
         <v>48.18</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="41">
         <v>48.18</v>
       </c>
-      <c r="Q8" s="105">
+      <c r="Q8" s="41">
         <v>48.33</v>
       </c>
     </row>
@@ -3175,55 +3363,55 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="34">
         <v>11503000</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="34">
         <v>14880000</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="34">
         <v>18066000</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="34">
         <v>19718000</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="34">
         <v>29203000</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="34">
         <v>36280000</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="34">
         <v>38527000</v>
       </c>
-      <c r="I16" s="98">
+      <c r="I16" s="34">
         <v>42901000</v>
       </c>
-      <c r="J16" s="98">
+      <c r="J16" s="34">
         <v>54297000</v>
       </c>
-      <c r="K16" s="98">
+      <c r="K16" s="34">
         <v>70259000</v>
       </c>
-      <c r="L16" s="98">
+      <c r="L16" s="34">
         <v>92162000</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="35">
         <v>105421000</v>
       </c>
-      <c r="N16" s="98">
+      <c r="N16" s="34">
         <v>24320000</v>
       </c>
-      <c r="O16" s="98">
+      <c r="O16" s="34">
         <v>28896000</v>
       </c>
-      <c r="P16" s="98">
+      <c r="P16" s="34">
         <v>25749000</v>
       </c>
-      <c r="Q16" s="98">
+      <c r="Q16" s="34">
         <v>26456000</v>
       </c>
     </row>
@@ -3231,52 +3419,52 @@
       <c r="A17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="107">
+      <c r="B17" s="43">
         <v>22.3</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C17" s="43">
         <v>25.22</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="43">
         <v>26.78</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="43">
         <v>25.29</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="43">
         <v>31.97</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="43">
         <v>34.369999999999997</v>
       </c>
-      <c r="H17" s="107">
+      <c r="H17" s="43">
         <v>25.15</v>
       </c>
-      <c r="I17" s="107">
+      <c r="I17" s="43">
         <v>21.49</v>
       </c>
-      <c r="J17" s="107">
+      <c r="J17" s="43">
         <v>21.82</v>
       </c>
-      <c r="K17" s="107">
+      <c r="K17" s="43">
         <v>24.87</v>
       </c>
-      <c r="L17" s="107">
+      <c r="L17" s="43">
         <v>25.78</v>
       </c>
-      <c r="M17" s="108">
+      <c r="M17" s="44">
         <v>25.5</v>
       </c>
-      <c r="N17" s="107">
+      <c r="N17" s="43">
         <v>26.24</v>
       </c>
-      <c r="O17" s="107">
+      <c r="O17" s="43">
         <v>27.55</v>
       </c>
-      <c r="P17" s="107">
+      <c r="P17" s="43">
         <v>23.68</v>
       </c>
-      <c r="Q17" s="107">
+      <c r="Q17" s="43">
         <v>24.69</v>
       </c>
     </row>
@@ -4086,55 +4274,55 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="98">
+      <c r="B33" s="34">
         <v>3580000</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="34">
         <v>7530000</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="34">
         <v>8986000</v>
       </c>
-      <c r="E33" s="98">
+      <c r="E33" s="34">
         <v>10106000</v>
       </c>
-      <c r="F33" s="98">
+      <c r="F33" s="34">
         <v>15434000</v>
       </c>
-      <c r="G33" s="98">
+      <c r="G33" s="34">
         <v>27304000</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="34">
         <v>21719000</v>
       </c>
-      <c r="I33" s="98">
+      <c r="I33" s="34">
         <v>20476000</v>
       </c>
-      <c r="J33" s="98">
+      <c r="J33" s="34">
         <v>23306000</v>
       </c>
-      <c r="K33" s="98">
+      <c r="K33" s="34">
         <v>42658000</v>
       </c>
-      <c r="L33" s="98">
+      <c r="L33" s="34">
         <v>52947000</v>
       </c>
-      <c r="M33" s="99">
+      <c r="M33" s="35">
         <v>62814000</v>
       </c>
-      <c r="N33" s="98">
+      <c r="N33" s="34">
         <v>13368000</v>
       </c>
-      <c r="O33" s="98">
+      <c r="O33" s="34">
         <v>17596000</v>
       </c>
-      <c r="P33" s="98">
+      <c r="P33" s="34">
         <v>15669000</v>
       </c>
-      <c r="Q33" s="98">
+      <c r="Q33" s="34">
         <v>16181000</v>
       </c>
     </row>
@@ -4142,52 +4330,52 @@
       <c r="A34" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="107">
+      <c r="B34" s="43">
         <v>6.94</v>
       </c>
-      <c r="C34" s="107">
+      <c r="C34" s="43">
         <v>12.76</v>
       </c>
-      <c r="D34" s="107">
+      <c r="D34" s="43">
         <v>13.32</v>
       </c>
-      <c r="E34" s="107">
+      <c r="E34" s="43">
         <v>12.96</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="43">
         <v>16.89</v>
       </c>
-      <c r="G34" s="107">
+      <c r="G34" s="43">
         <v>25.87</v>
       </c>
-      <c r="H34" s="107">
+      <c r="H34" s="43">
         <v>14.18</v>
       </c>
-      <c r="I34" s="107">
+      <c r="I34" s="43">
         <v>10.25</v>
       </c>
-      <c r="J34" s="107">
+      <c r="J34" s="43">
         <v>9.3699999999999992</v>
       </c>
-      <c r="K34" s="107">
+      <c r="K34" s="43">
         <v>15.1</v>
       </c>
-      <c r="L34" s="107">
+      <c r="L34" s="43">
         <v>14.81</v>
       </c>
-      <c r="M34" s="108">
+      <c r="M34" s="44">
         <v>15.19</v>
       </c>
-      <c r="N34" s="107">
+      <c r="N34" s="43">
         <v>14.43</v>
       </c>
-      <c r="O34" s="107">
+      <c r="O34" s="43">
         <v>16.78</v>
       </c>
-      <c r="P34" s="107">
+      <c r="P34" s="43">
         <v>14.41</v>
       </c>
-      <c r="Q34" s="107">
+      <c r="Q34" s="43">
         <v>15.1</v>
       </c>
     </row>
@@ -9094,55 +9282,55 @@
       </c>
     </row>
     <row r="128" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="100" t="s">
+      <c r="A128" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="98">
+      <c r="B128" s="34">
         <v>28354000</v>
       </c>
-      <c r="C128" s="98">
+      <c r="C128" s="34">
         <v>28581182</v>
       </c>
-      <c r="D128" s="98">
+      <c r="D128" s="34">
         <v>28581182</v>
       </c>
-      <c r="E128" s="98">
+      <c r="E128" s="34">
         <v>28581182</v>
       </c>
-      <c r="F128" s="98">
+      <c r="F128" s="34">
         <v>28747392</v>
       </c>
-      <c r="G128" s="98">
+      <c r="G128" s="34">
         <v>29092669</v>
       </c>
-      <c r="H128" s="98">
+      <c r="H128" s="34">
         <v>29296939</v>
       </c>
-      <c r="I128" s="98">
+      <c r="I128" s="34">
         <v>29457228</v>
       </c>
-      <c r="J128" s="98">
+      <c r="J128" s="34">
         <v>29687123</v>
       </c>
-      <c r="K128" s="98">
+      <c r="K128" s="34">
         <v>29837454</v>
       </c>
-      <c r="L128" s="98">
+      <c r="L128" s="34">
         <v>29932668</v>
       </c>
-      <c r="M128" s="99">
+      <c r="M128" s="35">
         <v>29977614</v>
       </c>
-      <c r="N128" s="98">
+      <c r="N128" s="34">
         <v>29916183</v>
       </c>
-      <c r="O128" s="98">
+      <c r="O128" s="34">
         <v>29932668</v>
       </c>
-      <c r="P128" s="98">
+      <c r="P128" s="34">
         <v>29968872</v>
       </c>
-      <c r="Q128" s="98">
+      <c r="Q128" s="34">
         <v>29977614</v>
       </c>
     </row>
@@ -9796,55 +9984,55 @@
       </c>
     </row>
     <row r="142" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="100" t="s">
+      <c r="A142" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="98">
+      <c r="B142" s="34">
         <v>464000</v>
       </c>
-      <c r="C142" s="98">
+      <c r="C142" s="34">
         <v>748000</v>
       </c>
-      <c r="D142" s="98">
+      <c r="D142" s="34">
         <v>960000</v>
       </c>
-      <c r="E142" s="98">
+      <c r="E142" s="34">
         <v>1155000</v>
       </c>
-      <c r="F142" s="98">
+      <c r="F142" s="34">
         <v>1231000</v>
       </c>
-      <c r="G142" s="98">
+      <c r="G142" s="34">
         <v>1851000</v>
       </c>
-      <c r="H142" s="98">
+      <c r="H142" s="34">
         <v>3725000</v>
       </c>
-      <c r="I142" s="98">
+      <c r="I142" s="34">
         <v>6974000</v>
       </c>
-      <c r="J142" s="98">
+      <c r="J142" s="34">
         <v>8558000</v>
       </c>
-      <c r="K142" s="98">
+      <c r="K142" s="34">
         <v>9631000</v>
       </c>
-      <c r="L142" s="98">
+      <c r="L142" s="34">
         <v>4200000</v>
       </c>
-      <c r="M142" s="99">
+      <c r="M142" s="35">
         <v>10505000</v>
       </c>
-      <c r="N142" s="98">
+      <c r="N142" s="34">
         <v>1528000</v>
       </c>
-      <c r="O142" s="98">
+      <c r="O142" s="34">
         <v>2082000</v>
       </c>
-      <c r="P142" s="98">
+      <c r="P142" s="34">
         <v>3345000</v>
       </c>
-      <c r="Q142" s="98">
+      <c r="Q142" s="34">
         <v>3550000</v>
       </c>
     </row>
@@ -12250,55 +12438,55 @@
       </c>
     </row>
     <row r="188" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="100" t="s">
+      <c r="A188" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B188" s="98">
+      <c r="B188" s="34">
         <v>10126641</v>
       </c>
-      <c r="C188" s="98">
+      <c r="C188" s="34">
         <v>10553096</v>
       </c>
-      <c r="D188" s="98">
+      <c r="D188" s="34">
         <v>15175319</v>
       </c>
-      <c r="E188" s="98">
+      <c r="E188" s="34">
         <v>13349644</v>
       </c>
-      <c r="F188" s="98">
+      <c r="F188" s="34">
         <v>22873323</v>
       </c>
-      <c r="G188" s="98">
+      <c r="G188" s="34">
         <v>29011635</v>
       </c>
-      <c r="H188" s="98">
+      <c r="H188" s="34">
         <v>42953092</v>
       </c>
-      <c r="I188" s="98">
+      <c r="I188" s="34">
         <v>29715348</v>
       </c>
-      <c r="J188" s="98">
+      <c r="J188" s="34">
         <v>73994620</v>
       </c>
-      <c r="K188" s="98">
+      <c r="K188" s="34">
         <v>31707790</v>
       </c>
-      <c r="L188" s="98">
+      <c r="L188" s="34">
         <v>68514527</v>
       </c>
-      <c r="M188" s="99">
+      <c r="M188" s="35">
         <v>81248647</v>
       </c>
-      <c r="N188" s="98">
+      <c r="N188" s="34">
         <v>21680815</v>
       </c>
-      <c r="O188" s="98">
+      <c r="O188" s="34">
         <v>22099235</v>
       </c>
-      <c r="P188" s="98">
+      <c r="P188" s="34">
         <v>34805634</v>
       </c>
-      <c r="Q188" s="98">
+      <c r="Q188" s="34">
         <v>2671280</v>
       </c>
     </row>
@@ -12665,7 +12853,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12673,1727 +12861,1790 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" cm="1">
+      <c r="A3" s="49" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5353101817</v>
-      </c>
-      <c r="B3" s="27" t="s">
+        <v>7073405812</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="51">
         <f>Financials!M8*0.01</f>
         <v>0.48020000000000002</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="51">
         <f>SUM(C11:E11)/3</f>
         <v>0.21567791401060044</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="53">
         <f>AVERAGE(Financials!H129:L129)</f>
         <v>5.7103688202766456E-3</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="31">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>2803200873.1036673</v>
-      </c>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="54">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>2575121992.1050267</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="116" t="s">
+      <c r="K3" s="99">
+        <f>(Financials!M172*-1)/Model!A3</f>
+        <v>3.2811633627221047E-3</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="57">
         <f>Financials!M56-Financials!M96-Financials!M105</f>
         <v>-522911000</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="28">
         <f>Financials!M17*0.01</f>
         <v>0.255</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="28">
         <f>SUM(C13:E13)/3</f>
         <v>0.40325071204274959</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="60">
         <f>A5*(1+(5*G3))</f>
-        <v>30833526.047252066</v>
-      </c>
-      <c r="H4" s="40" t="s">
+        <v>30254770.210094661</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="41">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>2294137510.711266</v>
-      </c>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="27">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>2094532673.4578021</v>
+      </c>
+      <c r="J4" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="K4" s="42">
-        <f>(Financials!M172*-1)/Model!A3</f>
-        <v>4.3356171418773518E-3</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="118" t="s">
+      <c r="K4" s="61" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>2.0367000000000003E-2</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="34"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" cm="1">
+      <c r="A5" s="57" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>29977610</v>
-      </c>
-      <c r="B5" s="36" t="s">
+        <v>29414920</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="28">
         <f>Financials!M34*0.01</f>
         <v>0.15190000000000001</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="37">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="28">
+        <f>SUM(C16:E16)/3</f>
         <v>0.69314662807520833</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="60">
         <f>Financials!M56</f>
         <v>188500000</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="27">
         <f>I4+G5-G6</f>
-        <v>1771226510.711266</v>
-      </c>
-      <c r="J5" s="38" t="s">
+        <v>1571621673.4578018</v>
+      </c>
+      <c r="J5" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="44" cm="1">
+      <c r="K5" s="64" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>178.57</v>
-      </c>
-      <c r="L5" s="27" t="s">
+        <v>240.47</v>
+      </c>
+      <c r="L5" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="101">
         <f>Financials!M20</f>
         <v>19869000</v>
       </c>
-      <c r="P5" s="34"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="66">
         <f>O20/F10</f>
-        <v>12.277756461009174</v>
-      </c>
-      <c r="B6" s="36" t="s">
+        <v>16.223407825688074</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="28">
         <f>Financials!M190</f>
         <v>0.19652192011764905</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="28">
         <f>Financials!M33/Financials!M126</f>
         <v>-0.17192781735919704</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="60">
         <f>Financials!M96+Financials!M105</f>
         <v>711411000</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="61">
         <f>N25</f>
-        <v>9.1183269911224413E-2</v>
-      </c>
-      <c r="J6" s="40" t="s">
+        <v>9.7045130509853264E-2</v>
+      </c>
+      <c r="J6" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="67">
         <f>I5/G4</f>
-        <v>57.444825090613357</v>
-      </c>
-      <c r="L6" s="51" t="s">
+        <v>51.946243932582313</v>
+      </c>
+      <c r="L6" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="52" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="101">
         <f>Financials!M96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54">
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>81.107603287878788</v>
-      </c>
-      <c r="B7" s="55" t="s">
+        <v>107.17281533333333</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="56">
-        <f>F14/A3</f>
-        <v>1.6252259526189392E-2</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="71">
+        <f>F15/A3</f>
+        <v>1.2299591217063342E-2</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="72">
         <f>(Financials!M16*(1-0.25))/(Financials!M126+Financials!M105+Financials!M96)</f>
         <v>0.22847410853609201</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="73">
         <f>(Financials!M96+Financials!M105)/Financials!M126</f>
         <v>-1.9471987212297215</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="75">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>-0.67830640594381275</v>
-      </c>
-      <c r="L7" s="64" t="s">
+        <v>-0.78398035541821298</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="52" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="101">
         <f>Financials!M105</f>
         <v>711411000</v>
       </c>
-      <c r="P7" s="34"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="66" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="103">
         <f>O5/(O6+O7)</f>
         <v>2.792900306573837E-2</v>
       </c>
-      <c r="P8" s="34"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80">
         <v>2019</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="80">
         <v>2020</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="80">
         <v>2021</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="81">
         <v>2022</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="82">
         <v>2023</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="83">
         <v>2024</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="83">
         <v>2025</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="83">
         <v>2026</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="84">
         <v>2027</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="52" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="101">
         <f>Financials!M25</f>
         <v>21773000</v>
       </c>
-      <c r="P9" s="34"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="86">
         <v>199676000</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="86">
         <v>248811000</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="86">
         <v>282502000</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="87">
         <v>357521000</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="86">
         <v>436000000</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="86">
         <v>500000000</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="86">
         <v>570000000</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="86">
         <v>655000000</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="87">
         <v>742000000</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="L10" s="30"/>
+      <c r="N10" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="101">
         <f>Financials!M24</f>
         <v>84587000</v>
       </c>
-      <c r="P10" s="34"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79">
+      <c r="A11" s="89"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.24607363929565906</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="31">
         <f t="shared" si="0"/>
         <v>0.13540800045014079</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>0.26555210228600146</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="32">
         <f t="shared" si="0"/>
         <v>0.21950878409939567</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
         <v>0.14678899082568808</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="31">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="I11" s="79">
+      <c r="I11" s="31">
         <f t="shared" si="0"/>
         <v>0.14912280701754388</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="90">
         <f t="shared" si="0"/>
         <v>0.13282442748091605</v>
       </c>
-      <c r="K11" s="81">
+      <c r="K11" s="90">
         <f>SUM(F11:J11)/5</f>
         <v>0.15764900188470871</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="52" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="104">
         <f>O9/O10</f>
         <v>0.2574036199415986</v>
       </c>
-      <c r="P11" s="34"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="86">
         <v>20476000</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="86">
         <v>23306000</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="86">
         <v>42658000</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="86">
         <v>52947000</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="91">
         <v>66000000</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="86">
         <v>77000000</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="86">
         <v>92000000</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="86">
         <v>113000000</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="87">
         <v>127000000</v>
       </c>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="83" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="O12" s="84">
+      <c r="O12" s="104">
         <f>O8*(1-O11)</f>
         <v>2.0739976575257311E-2</v>
       </c>
-      <c r="P12" s="34"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79">
+      <c r="A13" s="89"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.13821058800546981</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="31">
         <f t="shared" si="1"/>
         <v>0.83034411739466241</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="31">
         <f t="shared" si="1"/>
         <v>0.24119743072811661</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="32">
         <f t="shared" si="1"/>
         <v>0.24652954841634078</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="31">
         <f t="shared" si="1"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="31">
         <f t="shared" si="1"/>
         <v>0.19480519480519476</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="31">
         <f t="shared" si="1"/>
         <v>0.22826086956521729</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="90">
         <f t="shared" si="1"/>
         <v>0.12389380530973448</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="90">
         <f>SUM(F13:J13)/5</f>
         <v>0.19203121695263081</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="118" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="34"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="46">
+        <f>B12/B10</f>
+        <v>0.10254612472204971</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>9.3669492104448762E-2</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.15100070087999376</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.14809479722869426</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.15137614678899083</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.154</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.16140350877192983</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.17251908396946564</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.1711590296495957</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="O14" s="104">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.4839999999999998E-2</v>
+      </c>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B15" s="86">
         <v>29715348</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C15" s="86">
         <v>73994620</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D15" s="86">
         <v>31707790</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E15" s="86">
         <v>68514527</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F15" s="91">
         <v>87000000</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G15" s="86">
         <v>103000000</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H15" s="86">
         <v>120000000</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I15" s="86">
         <v>151000000</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J15" s="87">
         <v>181000000</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="K15" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="O14" s="82">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
-      </c>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="O15" s="105" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.5290999999999999</v>
+      </c>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="93"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>1.490114536097642</v>
       </c>
-      <c r="D15" s="79">
-        <f t="shared" si="2"/>
+      <c r="D16" s="31">
+        <f t="shared" si="3"/>
         <v>-0.57148519716703727</v>
       </c>
-      <c r="E15" s="79">
-        <f t="shared" si="2"/>
+      <c r="E16" s="31">
+        <f t="shared" si="3"/>
         <v>1.1608105452950204</v>
       </c>
-      <c r="F15" s="80">
-        <f t="shared" si="2"/>
+      <c r="F16" s="32">
+        <f t="shared" si="3"/>
         <v>0.26980370162958289</v>
       </c>
-      <c r="G15" s="79">
-        <f t="shared" si="2"/>
+      <c r="G16" s="31">
+        <f t="shared" si="3"/>
         <v>0.18390804597701149</v>
       </c>
-      <c r="H15" s="79">
-        <f t="shared" si="2"/>
+      <c r="H16" s="31">
+        <f t="shared" si="3"/>
         <v>0.16504854368932032</v>
       </c>
-      <c r="I15" s="79">
-        <f t="shared" si="2"/>
+      <c r="I16" s="31">
+        <f t="shared" si="3"/>
         <v>0.2583333333333333</v>
       </c>
-      <c r="J15" s="79">
-        <f t="shared" si="2"/>
+      <c r="J16" s="90">
+        <f t="shared" si="3"/>
         <v>0.19867549668874163</v>
       </c>
-      <c r="K15" s="81">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="90">
+        <f>SUM(F16:J16)/5</f>
         <v>0.21515382426359791</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="O15" s="86" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.4654</v>
-      </c>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="O16" s="104">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="46">
+        <f>B15/B10</f>
+        <v>0.1488178248762996</v>
+      </c>
+      <c r="C17" s="46">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.29739288053984753</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.11223916998817708</v>
+      </c>
+      <c r="E17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.19163776952962203</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.19954128440366972</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="I17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.23053435114503817</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.24393530997304583</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="O17" s="107">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.10471955600000001</v>
+      </c>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="87">
+      <c r="B18" s="95">
         <v>0.31163859482599976</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C18" s="95">
         <v>0.31513546350107952</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D18" s="95">
         <v>0.32464790034008578</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E18" s="95">
         <v>0.21380979630975763</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="O16" s="82">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="O17" s="93">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10054497000000001</v>
-      </c>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="118" t="s">
+      <c r="F18" s="96"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="O18" s="119"/>
-      <c r="P18" s="34"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="120" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2015</v>
-      </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="52" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="95">
+      <c r="O19" s="108">
         <f>O6+O7</f>
         <v>711411000</v>
       </c>
-      <c r="P19" s="34"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" s="108" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>7073405812</v>
+      </c>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="121" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2015</v>
+      </c>
+      <c r="D21" s="122"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="O21" s="108">
+        <f>O19+O20</f>
+        <v>7784816812</v>
+      </c>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="121" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Wingstop Inc. is a fast casual chicken wings-focused restaurant chain, with over 1,950 locations worldwide. The Company is in the business of franchising and operating Wingstop restaurants. The Company is primarily a franchisor, with approximately 98% of its restaurants owned and operated by independent franchisees. It offers classic and boneless wings, tenders, and chicken sandwiches, always cooked to order and hand sauced-and-tossed in about 11 distinctive flavors. The Company also complements its wings, tenders, and chicken sandwiches with seasoned fries, ranch, bleu cheese dips, hand-cut carrots and celery. It offers various order options, including eat-in, to go, individual, combo meals and family packs. It also developed a custom Website and mobile ordering application. The Company operates approximately a total of 1,916 restaurants in 44 states and nine countries.</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="O20" s="95" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5353101817</v>
-      </c>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="O21" s="95">
-        <f>O19+O20</f>
-        <v>6064512817</v>
-      </c>
-      <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="66" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="O22" s="96">
+      <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>0.11730719704405235</v>
-      </c>
-      <c r="P22" s="34"/>
+        <v>9.1384423960161387E-2</v>
+      </c>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="92" t="s">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="O23" s="97">
+      <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.88269280295594765</v>
-      </c>
-      <c r="P23" s="34"/>
+        <v>0.90861557603983856</v>
+      </c>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="110" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="34"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="112">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.1183269911224413E-2</v>
-      </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="34"/>
+        <v>9.7045130509853264E-2</v>
+      </c>
+      <c r="O25" s="114"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="73"/>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="34"/>
-      <c r="P96" s="34"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="34"/>
-      <c r="P97" s="34"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="34"/>
-      <c r="P99" s="34"/>
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="34"/>
-      <c r="P100" s="34"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="26"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="34"/>
-      <c r="P101" s="34"/>
+      <c r="O101" s="26"/>
+      <c r="P101" s="26"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="34"/>
-      <c r="P102" s="34"/>
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="34"/>
-      <c r="P104" s="34"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="34"/>
-      <c r="P105" s="34"/>
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="34"/>
-      <c r="P106" s="34"/>
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="34"/>
-      <c r="P107" s="34"/>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="34"/>
-      <c r="P108" s="34"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="34"/>
-      <c r="P109" s="34"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="34"/>
-      <c r="P110" s="34"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -14401,8 +14652,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:WING/explorer/revenue_proj" xr:uid="{FE47D938-E82F-8845-917E-D273F0274227}"/>

--- a/Consumer/Wingstop.xlsx
+++ b/Consumer/Wingstop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A385CD2-96BB-5844-A241-3374EC70AA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDDD949-96D1-A14B-97ED-8529F1BE00C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1675,7 +1675,10 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1709,12 +1712,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1732,7 +1737,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1745,6 +1750,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1870,13 +1877,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>241.655</v>
+    <v>250.7</v>
     <v>129.46</v>
-    <v>1.5290999999999999</v>
-    <v>4.8</v>
-    <v>2.0367000000000003E-2</v>
-    <v>-2.25</v>
-    <v>-9.356999999999999E-3</v>
+    <v>1.6034999999999999</v>
+    <v>1.42</v>
+    <v>5.7780000000000001E-3</v>
+    <v>0.82</v>
+    <v>3.3170000000000001E-3</v>
     <v>USD</v>
     <v>Wingstop Inc. is a fast casual chicken wings-focused restaurant chain, with over 1,950 locations worldwide. The Company is in the business of franchising and operating Wingstop restaurants. The Company is primarily a franchisor, with approximately 98% of its restaurants owned and operated by independent franchisees. It offers classic and boneless wings, tenders, and chicken sandwiches, always cooked to order and hand sauced-and-tossed in about 11 distinctive flavors. The Company also complements its wings, tenders, and chicken sandwiches with seasoned fries, ranch, bleu cheese dips, hand-cut carrots and celery. It offers various order options, including eat-in, to go, individual, combo meals and family packs. It also developed a custom Website and mobile ordering application. The Company operates approximately a total of 1,916 restaurants in 44 states and nine countries.</v>
     <v>1031</v>
@@ -1884,25 +1891,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>15505 WRIGHT BROTHERS DRIVE, ADDISON, TX, 75001 US</v>
-    <v>241.655</v>
+    <v>248.38499999999999</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45258.002888402341</v>
+    <v>45268.949944976564</v>
     <v>0</v>
-    <v>229.27</v>
-    <v>7073405812</v>
+    <v>244.89</v>
+    <v>7270779925</v>
     <v>WINGSTOP INC.</v>
     <v>WINGSTOP INC.</v>
-    <v>234.8</v>
-    <v>104.4936</v>
-    <v>235.67</v>
-    <v>240.47</v>
-    <v>238.22</v>
+    <v>244.89</v>
+    <v>106.7923</v>
+    <v>245.76</v>
+    <v>247.18</v>
+    <v>248</v>
     <v>29414920</v>
     <v>WING</v>
     <v>WINGSTOP INC. (XNAS:WING)</v>
-    <v>549706</v>
-    <v>531973</v>
+    <v>288187</v>
+    <v>456291</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2067,9 +2074,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -12853,7 +12860,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12902,7 +12909,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>7073405812</v>
+        <v>7270779925</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>199</v>
@@ -12930,14 +12937,14 @@
       </c>
       <c r="I3" s="54">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>2575121992.1050267</v>
+        <v>2413044801.6696262</v>
       </c>
       <c r="J3" s="55" t="s">
         <v>203</v>
       </c>
       <c r="K3" s="99">
         <f>(Financials!M172*-1)/Model!A3</f>
-        <v>3.2811633627221047E-3</v>
+        <v>3.1920922156091804E-3</v>
       </c>
       <c r="L3" s="56" t="s">
         <v>209</v>
@@ -12980,14 +12987,14 @@
       </c>
       <c r="I4" s="27">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2094532673.4578021</v>
+        <v>1952889733.1564264</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>208</v>
       </c>
       <c r="K4" s="61" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.0367000000000003E-2</v>
+        <v>5.7780000000000001E-3</v>
       </c>
       <c r="L4" s="62" t="s">
         <v>249</v>
@@ -13030,14 +13037,14 @@
       </c>
       <c r="I5" s="27">
         <f>I4+G5-G6</f>
-        <v>1571621673.4578018</v>
+        <v>1429978733.1564264</v>
       </c>
       <c r="J5" s="59" t="s">
         <v>215</v>
       </c>
       <c r="K5" s="64" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>240.47</v>
+        <v>247.18</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>216</v>
@@ -13055,7 +13062,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66">
         <f>O20/F10</f>
-        <v>16.223407825688074</v>
+        <v>16.676100745412842</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>218</v>
@@ -13083,14 +13090,14 @@
       </c>
       <c r="I6" s="61">
         <f>N25</f>
-        <v>9.7045130509853264E-2</v>
+        <v>0.10188419206789369</v>
       </c>
       <c r="J6" s="59" t="s">
         <v>221</v>
       </c>
       <c r="K6" s="67">
         <f>I5/G4</f>
-        <v>51.946243932582313</v>
+        <v>47.264570949519445</v>
       </c>
       <c r="L6" s="68" t="s">
         <v>222</v>
@@ -13108,14 +13115,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>107.17281533333333</v>
+        <v>110.16333219696969</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="71">
         <f>F15/A3</f>
-        <v>1.2299591217063342E-2</v>
+        <v>1.1965703940626425E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>225</v>
@@ -13142,7 +13149,7 @@
       </c>
       <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>-0.78398035541821298</v>
+        <v>-0.8087848088457017</v>
       </c>
       <c r="L7" s="78" t="s">
         <v>228</v>
@@ -13455,7 +13462,7 @@
       </c>
       <c r="O14" s="104">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="26"/>
     </row>
@@ -13500,7 +13507,7 @@
       </c>
       <c r="O15" s="105" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5290999999999999</v>
+        <v>1.6034999999999999</v>
       </c>
       <c r="P15" s="26"/>
     </row>
@@ -13601,7 +13608,7 @@
       </c>
       <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10471955600000001</v>
+        <v>0.10982376499999999</v>
       </c>
       <c r="P17" s="26"/>
     </row>
@@ -13677,21 +13684,21 @@
       </c>
       <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>7073405812</v>
+        <v>7270779925</v>
       </c>
       <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="str" cm="1">
+      <c r="A21" s="122" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122" cm="1">
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2015</v>
       </c>
-      <c r="D21" s="122"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="33"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
@@ -13705,7 +13712,7 @@
       </c>
       <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>7784816812</v>
+        <v>7982190925</v>
       </c>
       <c r="P21" s="26"/>
     </row>
@@ -13731,7 +13738,7 @@
       </c>
       <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>9.1384423960161387E-2</v>
+        <v>8.9124778733603138E-2</v>
       </c>
       <c r="P22" s="26"/>
     </row>
@@ -13754,7 +13761,7 @@
       </c>
       <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.90861557603983856</v>
+        <v>0.91087522126639686</v>
       </c>
       <c r="P23" s="26"/>
     </row>
@@ -13794,7 +13801,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.7045130509853264E-2</v>
+        <v>0.10188419206789369</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="26"/>
